--- a/classfiers/nano/MLP/smote/nano-mlp-smote-results.xlsx
+++ b/classfiers/nano/MLP/smote/nano-mlp-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9903846153846154</v>
+        <v>0.9814814814814815</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9671361502347418</v>
+        <v>0.9953051643192489</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9786223277909739</v>
+        <v>0.9883449883449883</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9994489629482687</v>
+        <v>0.9990081333068835</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9953051643192489</v>
+        <v>0.9768518518518519</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9953051643192489</v>
+        <v>0.9906103286384976</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9953051643192489</v>
+        <v>0.9836829836829837</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999779585179308</v>
+        <v>0.9981925984703213</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9424778761061947</v>
+        <v>0.891213389121339</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9703872437357631</v>
+        <v>0.9424778761061947</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9968701095461658</v>
+        <v>0.9951729154268333</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.954954954954955</v>
+        <v>0.8801652892561983</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9953051643192489</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9747126436781609</v>
+        <v>0.9362637362637362</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9958341598889109</v>
+        <v>0.9811324913487184</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8987341772151899</v>
+        <v>0.852</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9466666666666668</v>
+        <v>0.920086393088553</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9993828385020609</v>
+        <v>0.9903017478895281</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9563713575960409</v>
+        <v>0.9163424023421742</v>
       </c>
       <c r="C7" t="n">
-        <v>0.991549295774648</v>
+        <v>0.9971830985915492</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9731388092381626</v>
+        <v>0.9541711954972911</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9983028058806674</v>
+        <v>0.9927615772884568</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/nano/MLP/smote/nano-mlp-smote-results.xlsx
+++ b/classfiers/nano/MLP/smote/nano-mlp-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9814814814814815</v>
+        <v>0.9795918367346939</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9953051643192489</v>
+        <v>0.9896907216494846</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9883449883449883</v>
+        <v>0.9846153846153847</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9990081333068835</v>
+        <v>0.9977415240726965</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9768518518518519</v>
+        <v>0.9743589743589743</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9906103286384976</v>
+        <v>0.9844559585492227</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9836829836829837</v>
+        <v>0.979381443298969</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9981925984703213</v>
+        <v>0.9986913092249345</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.891213389121339</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.9948186528497409</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9424778761061947</v>
+        <v>0.9388753056234719</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9951729154268333</v>
+        <v>0.9933230062496661</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8801652892561983</v>
+        <v>0.9061032863849765</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.9948453608247423</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9362637362637362</v>
+        <v>0.9484029484029484</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9811324913487184</v>
+        <v>0.9876342075743817</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.852</v>
+        <v>0.7255639097744361</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.9948453608247423</v>
       </c>
       <c r="D6" t="n">
-        <v>0.920086393088553</v>
+        <v>0.8391304347826088</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9903017478895281</v>
+        <v>0.96519950857326</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9163424023421742</v>
+        <v>0.8949013792283939</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9971830985915492</v>
+        <v>0.9917312109395866</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9541711954972911</v>
+        <v>0.9380811033446765</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9927615772884568</v>
+        <v>0.9885179111389878</v>
       </c>
     </row>
   </sheetData>
